--- a/biology/Botanique/Montanoa/Montanoa.xlsx
+++ b/biology/Botanique/Montanoa/Montanoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Montanoa est un genre de plantes à fleurs dicotylédones de la famille des Asteraceae, originaire des régions tropicales d'Amérique.
-Des décoctions de racines de Montanoa tomentosa étaient utilisées au Mexique sous le nom de cihuapactli pour favoriser l'expulsion lors de l’accouchement[2].
+Des décoctions de racines de Montanoa tomentosa étaient utilisées au Mexique sous le nom de cihuapactli pour favoriser l'expulsion lors de l’accouchement.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Montanoa a été décrit par le botaniste espagnol, Vicente Cervantes, et publié dans son Novorum Vegetabilium Descriptiones en 1825[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Montanoa a été décrit par le botaniste espagnol, Vicente Cervantes, et publié dans son Novorum Vegetabilium Descriptiones en 1825.
 L'espèce type est Montanoa tomentosa Cerv.
-Liste d'espèces
-Selon Catalogue of Life                                   (22 juin 2016)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Montanoa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montanoa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 juin 2016) :
 Montanoa andersonii McVaugh
 Montanoa aschenbornii Sch.Bip. ex K.Koch
 Montanoa atriplicifolia (Pers.) Sch.Bip.
@@ -552,10 +601,44 @@
 Montanoa tomentosa Cerv.
 Montanoa triloba Sch.Bip.
 Montanoa xanthiifolia Sch.Bip. ex K.Koch
-Selon ITIS      (22 juin 2016)[5] :
-Montanoa hibiscifolia (Benth.) Standl.
-Liste des espèces et sous-espèces
-Selon NCBI  (22 juin 2016)[6] :
+Selon ITIS      (22 juin 2016) :
+Montanoa hibiscifolia (Benth.) Standl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Montanoa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montanoa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 juin 2016) :
 Montanoa angulata
 Montanoa atriplicifolia
 Montanoa bipinnatifida
